--- a/biology/Zoologie/Bembidion/Bembidion.xlsx
+++ b/biology/Zoologie/Bembidion/Bembidion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bembidion est un genre d'insectes coléoptères prédateurs de la famille des carabidés, dont les adultes ont pour proies principalement des pucerons, des diptères et des larves de coléoptères sur les grandes cultures et les cultures légumières.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (2 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (2 janvier 2023) :
 Bembidion crassicorne Putzeys, 1872
 Bembidion humerale Sturm, 1825
 Bembidion quadrimaculatum (Linnaeus, 1761)
